--- a/Dokumente/Arbeitszeiterfassung1.xlsx
+++ b/Dokumente/Arbeitszeiterfassung1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23913"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="440" windowWidth="23020" windowHeight="14980" activeTab="2"/>
+    <workbookView xWindow="1560" yWindow="440" windowWidth="23020" windowHeight="14980"/>
   </bookViews>
   <sheets>
     <sheet name="Schuschnig" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
   <si>
     <t>Datum</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Management, Regelnfestlegen, Arbeitspakete festlegen, Protokoll</t>
   </si>
 </sst>
 </file>
@@ -733,8 +736,8 @@
   </sheetPr>
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -800,12 +803,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="26"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+    <row r="5" spans="1:11" ht="28">
+      <c r="A5" s="26">
+        <v>41661</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.6875</v>
+      </c>
+      <c r="E5" s="11">
+        <f>D5-C5</f>
+        <v>0.10416666666666663</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="26"/>
@@ -998,7 +1012,7 @@
       <c r="D32" s="31"/>
       <c r="E32" s="5">
         <f>SUM(E5:E31)</f>
-        <v>0</v>
+        <v>0.10416666666666663</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" thickTop="1"/>
@@ -1340,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/Dokumente/Arbeitszeiterfassung1.xlsx
+++ b/Dokumente/Arbeitszeiterfassung1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="440" windowWidth="23020" windowHeight="14980"/>
+    <workbookView xWindow="1560" yWindow="435" windowWidth="23025" windowHeight="14985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Schuschnig" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Poelzlbauer" sheetId="8" r:id="rId5"/>
     <sheet name="Rieppel" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
   <si>
     <t>Datum</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>Management, Regelnfestlegen, Arbeitspakete festlegen, Protokoll</t>
+  </si>
+  <si>
+    <t>UML erstellen</t>
+  </si>
+  <si>
+    <t>UML erweitern</t>
   </si>
 </sst>
 </file>
@@ -425,13 +431,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -736,20 +742,20 @@
   </sheetPr>
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="5" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="14" customHeight="1">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="33" t="s">
         <v>6</v>
       </c>
@@ -764,7 +770,7 @@
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
-    <row r="2" spans="1:11" ht="14" customHeight="1">
+    <row r="2" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="33"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -777,7 +783,7 @@
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>13</v>
       </c>
@@ -786,7 +792,7 @@
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="2" customFormat="1">
+    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -803,7 +809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28">
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>41661</v>
       </c>
@@ -821,189 +827,189 @@
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
       <c r="B6" s="10"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="26"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="12"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
       <c r="B9" s="12"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
       <c r="B10" s="12"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="12"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="12"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="12"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="12"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="12"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="12"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="12"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="1:5" s="3" customFormat="1">
+    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="12"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:5" s="3" customFormat="1">
+    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="12"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
     </row>
-    <row r="20" spans="1:5" s="3" customFormat="1">
+    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="12"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
     </row>
-    <row r="23" spans="1:5" s="3" customFormat="1">
+    <row r="23" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="1:5" s="3" customFormat="1">
+    <row r="24" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="1:5" s="3" customFormat="1">
+    <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
     </row>
-    <row r="26" spans="1:5" s="3" customFormat="1">
+    <row r="26" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" spans="1:5" s="3" customFormat="1">
+    <row r="27" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
     </row>
-    <row r="28" spans="1:5" s="3" customFormat="1">
+    <row r="28" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="13"/>
     </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1">
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="28"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="13"/>
     </row>
-    <row r="32" spans="1:5" ht="22" thickTop="1" thickBot="1">
+    <row r="32" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
         <v>5</v>
       </c>
@@ -1015,44 +1021,44 @@
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15" thickTop="1"/>
-    <row r="36" spans="1:1">
+    <row r="33" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
     </row>
-    <row r="37" spans="1:1" s="7" customFormat="1">
+    <row r="37" spans="1:1" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
     </row>
-    <row r="38" spans="1:1" s="7" customFormat="1">
+    <row r="38" spans="1:1" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
     </row>
-    <row r="39" spans="1:1" s="7" customFormat="1">
+    <row r="39" spans="1:1" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
     </row>
-    <row r="40" spans="1:1" s="7" customFormat="1">
+    <row r="40" spans="1:1" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:1" s="7" customFormat="1">
+    <row r="41" spans="1:1" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:1" s="7" customFormat="1">
+    <row r="42" spans="1:1" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
     </row>
-    <row r="43" spans="1:1" s="7" customFormat="1">
+    <row r="43" spans="1:1" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
     </row>
-    <row r="44" spans="1:1" s="7" customFormat="1">
+    <row r="44" spans="1:1" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
     </row>
-    <row r="48" spans="1:1" hidden="1"/>
-    <row r="49" hidden="1"/>
-    <row r="50" hidden="1"/>
-    <row r="51" hidden="1"/>
-    <row r="52" hidden="1"/>
-    <row r="53" hidden="1"/>
-    <row r="54" hidden="1"/>
-    <row r="55" hidden="1"/>
-    <row r="56" hidden="1"/>
-    <row r="57" hidden="1"/>
+    <row r="48" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="49" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="50" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="51" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="52" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="53" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="54" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="55" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="56" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="57" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A32:D32"/>
@@ -1081,18 +1087,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="5" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="5" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28" customHeight="1">
+    <row r="1" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
@@ -1101,14 +1107,14 @@
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
-    <row r="2" spans="1:5" ht="14.5" customHeight="1">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>7</v>
       </c>
@@ -1117,7 +1123,7 @@
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>0</v>
       </c>
@@ -1134,196 +1140,293 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>41662</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="E5" s="15">
+        <f>(D5-C5)</f>
+        <v>3.8194444444444364E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
+        <v>41662</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="E6" s="15">
+        <f t="shared" ref="E6:E31" si="0">(D6-C6)</f>
+        <v>4.8611111111111049E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="E15" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="E19" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="E20" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="E21" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="E22" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="E23" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="E24" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="E25" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="E26" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="E27" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="E28" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="E29" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="23"/>
-    </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1">
+      <c r="E30" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="22"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="24"/>
-    </row>
-    <row r="32" spans="1:5" ht="22" thickTop="1" thickBot="1">
+      <c r="E31" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
         <v>5</v>
       </c>
@@ -1331,10 +1434,11 @@
       <c r="C32" s="34"/>
       <c r="D32" s="35"/>
       <c r="E32" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" ht="15" thickTop="1"/>
+        <f>SUM(E5:E31)</f>
+        <v>8.6805555555555414E-2</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A32:D32"/>
@@ -1358,12 +1462,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" customHeight="1">
+    <row r="1" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>11</v>
       </c>
@@ -1372,14 +1476,14 @@
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>7</v>
       </c>
@@ -1388,7 +1492,7 @@
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>0</v>
       </c>
@@ -1405,77 +1509,77 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="20"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="20"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
@@ -1485,119 +1589,119 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="15"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="15"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="15"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="15"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="15"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="15"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="15"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="15"/>
     </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1">
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="22"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="15"/>
     </row>
-    <row r="32" spans="1:5" ht="22" thickTop="1" thickBot="1">
+    <row r="32" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
         <v>5</v>
       </c>
@@ -1609,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="15" thickTop="1"/>
+    <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E2"/>
@@ -1633,14 +1737,14 @@
       <selection activeCell="C4" activeCellId="1" sqref="A1:E1048576 A1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="5" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="5" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28" customHeight="1">
+    <row r="1" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>8</v>
       </c>
@@ -1649,14 +1753,14 @@
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
-    <row r="2" spans="1:5" ht="14.5" customHeight="1">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>7</v>
       </c>
@@ -1665,7 +1769,7 @@
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>0</v>
       </c>
@@ -1682,196 +1786,196 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="20"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="20"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="15"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="15"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="15"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="15"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="15"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="15"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="15"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="15"/>
     </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1">
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="22"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="15"/>
     </row>
-    <row r="32" spans="1:5" ht="22" thickTop="1" thickBot="1">
+    <row r="32" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
         <v>5</v>
       </c>
@@ -1883,7 +1987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="15" thickTop="1"/>
+    <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A32:D32"/>
@@ -1908,12 +2012,12 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
@@ -1922,14 +2026,14 @@
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>7</v>
       </c>
@@ -1938,7 +2042,7 @@
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>0</v>
       </c>
@@ -1955,196 +2059,196 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="20"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="20"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="15"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="15"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="15"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="15"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="15"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="15"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="15"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="15"/>
     </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1">
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="22"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="15"/>
     </row>
-    <row r="32" spans="1:5" ht="22" thickTop="1" thickBot="1">
+    <row r="32" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
         <v>5</v>
       </c>
@@ -2156,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="15" thickTop="1"/>
+    <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E2"/>
@@ -2180,17 +2284,17 @@
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34" customHeight="1">
+    <row r="1" spans="1:5" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>10</v>
       </c>
@@ -2199,14 +2303,14 @@
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
-    <row r="2" spans="1:5" ht="14.5" customHeight="1">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>7</v>
       </c>
@@ -2215,7 +2319,7 @@
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>0</v>
       </c>
@@ -2232,196 +2336,196 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="20"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="20"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="23"/>
     </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1">
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="22"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="24"/>
     </row>
-    <row r="32" spans="1:5" ht="22" thickTop="1" thickBot="1">
+    <row r="32" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
         <v>5</v>
       </c>
@@ -2432,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="15" thickTop="1"/>
+    <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A32:D32"/>

--- a/Dokumente/Arbeitszeiterfassung1.xlsx
+++ b/Dokumente/Arbeitszeiterfassung1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="18">
   <si>
     <t>Datum</t>
   </si>
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,13 +1177,21 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="A7" s="19">
+        <v>41664</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="E7" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16666666666666674</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1435,7 +1443,7 @@
       <c r="D32" s="35"/>
       <c r="E32" s="25">
         <f>SUM(E5:E31)</f>
-        <v>8.6805555555555414E-2</v>
+        <v>0.25347222222222215</v>
       </c>
     </row>
     <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Dokumente/Arbeitszeiterfassung1.xlsx
+++ b/Dokumente/Arbeitszeiterfassung1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
   <si>
     <t>Datum</t>
   </si>
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,21 +1177,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
-        <v>41664</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="15">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="D7" s="15">
-        <v>0.77083333333333337</v>
-      </c>
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="15">
         <f t="shared" si="0"/>
-        <v>0.16666666666666674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1443,7 +1435,7 @@
       <c r="D32" s="35"/>
       <c r="E32" s="25">
         <f>SUM(E5:E31)</f>
-        <v>0.25347222222222215</v>
+        <v>8.6805555555555414E-2</v>
       </c>
     </row>
     <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Dokumente/Arbeitszeiterfassung1.xlsx
+++ b/Dokumente/Arbeitszeiterfassung1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="440" windowWidth="23020" windowHeight="14980" activeTab="1"/>
+    <workbookView xWindow="1560" yWindow="435" windowWidth="23025" windowHeight="14985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Schuschnig" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Poelzlbauer" sheetId="8" r:id="rId5"/>
     <sheet name="Rieppel" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -421,14 +421,14 @@
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -737,16 +737,16 @@
       <selection activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="5" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="14" customHeight="1">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="32" t="s">
         <v>6</v>
       </c>
@@ -761,7 +761,7 @@
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
     </row>
-    <row r="2" spans="1:11" ht="14" customHeight="1">
+    <row r="2" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="32"/>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -774,7 +774,7 @@
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>13</v>
       </c>
@@ -783,7 +783,7 @@
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
     </row>
-    <row r="4" spans="1:11" s="2" customFormat="1">
+    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -800,7 +800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28">
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>41661</v>
       </c>
@@ -818,7 +818,7 @@
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>41664</v>
       </c>
@@ -836,7 +836,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="12"/>
       <c r="C8" s="11"/>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="12"/>
       <c r="C9" s="11"/>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="12"/>
       <c r="C10" s="11"/>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="12"/>
       <c r="C11" s="11"/>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="12"/>
       <c r="C12" s="11"/>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="12"/>
       <c r="C13" s="11"/>
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="12"/>
       <c r="C14" s="11"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="12"/>
       <c r="C15" s="11"/>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="12"/>
       <c r="C16" s="11"/>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="12"/>
       <c r="C17" s="11"/>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="3" customFormat="1">
+    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="12"/>
       <c r="C18" s="11"/>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="3" customFormat="1">
+    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="B19" s="12"/>
       <c r="C19" s="11"/>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="3" customFormat="1">
+    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="12"/>
       <c r="C20" s="11"/>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="3" customFormat="1">
+    <row r="23" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="3" customFormat="1">
+    <row r="24" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="3" customFormat="1">
+    <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="3" customFormat="1">
+    <row r="26" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="3" customFormat="1">
+    <row r="27" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="3" customFormat="1">
+    <row r="28" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1">
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="27"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="22" thickTop="1" thickBot="1">
+    <row r="32" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
         <v>5</v>
       </c>
@@ -1098,44 +1098,44 @@
         <v>0.26388888888888884</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15" thickTop="1"/>
-    <row r="36" spans="1:1">
+    <row r="33" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
     </row>
-    <row r="37" spans="1:1" s="7" customFormat="1">
+    <row r="37" spans="1:1" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
     </row>
-    <row r="38" spans="1:1" s="7" customFormat="1">
+    <row r="38" spans="1:1" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
     </row>
-    <row r="39" spans="1:1" s="7" customFormat="1">
+    <row r="39" spans="1:1" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
     </row>
-    <row r="40" spans="1:1" s="7" customFormat="1">
+    <row r="40" spans="1:1" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:1" s="7" customFormat="1">
+    <row r="41" spans="1:1" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:1" s="7" customFormat="1">
+    <row r="42" spans="1:1" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
     </row>
-    <row r="43" spans="1:1" s="7" customFormat="1">
+    <row r="43" spans="1:1" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
     </row>
-    <row r="44" spans="1:1" s="7" customFormat="1">
+    <row r="44" spans="1:1" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
     </row>
-    <row r="48" spans="1:1" hidden="1"/>
-    <row r="49" hidden="1"/>
-    <row r="50" hidden="1"/>
-    <row r="51" hidden="1"/>
-    <row r="52" hidden="1"/>
-    <row r="53" hidden="1"/>
-    <row r="54" hidden="1"/>
-    <row r="55" hidden="1"/>
-    <row r="56" hidden="1"/>
-    <row r="57" hidden="1"/>
+    <row r="48" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="49" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="50" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="51" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="52" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="53" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="54" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="55" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="56" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="57" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A32:D32"/>
@@ -1165,17 +1165,17 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="5" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="5" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28" customHeight="1">
+    <row r="1" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>9</v>
       </c>
@@ -1184,14 +1184,14 @@
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
     </row>
-    <row r="2" spans="1:5" ht="14.5" customHeight="1">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>7</v>
       </c>
@@ -1200,7 +1200,7 @@
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>41662</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>3.8194444444444364E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>41662</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>4.8611111111111049E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>41664</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1">
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="22" thickTop="1" thickBot="1">
+    <row r="32" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
         <v>5</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>0.24652777777777762</v>
       </c>
     </row>
-    <row r="33" ht="15" thickTop="1"/>
+    <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A32:D32"/>
@@ -1547,12 +1547,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" customHeight="1">
+    <row r="1" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>11</v>
       </c>
@@ -1561,14 +1561,14 @@
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>7</v>
       </c>
@@ -1577,7 +1577,7 @@
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
@@ -1594,77 +1594,77 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="19"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="19"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
@@ -1674,119 +1674,119 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="14"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="14"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="14"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="14"/>
     </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1">
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="14"/>
     </row>
-    <row r="32" spans="1:5" ht="22" thickTop="1" thickBot="1">
+    <row r="32" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
         <v>5</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="15" thickTop="1"/>
+    <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E2"/>
@@ -1822,14 +1822,14 @@
       <selection activeCell="C4" activeCellId="1" sqref="A1:E1048576 A1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="5" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="5" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28" customHeight="1">
+    <row r="1" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>8</v>
       </c>
@@ -1838,14 +1838,14 @@
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
     </row>
-    <row r="2" spans="1:5" ht="14.5" customHeight="1">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>7</v>
       </c>
@@ -1854,7 +1854,7 @@
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
@@ -1871,196 +1871,196 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="19"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="19"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="14"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="14"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="14"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="14"/>
     </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1">
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="14"/>
     </row>
-    <row r="32" spans="1:5" ht="22" thickTop="1" thickBot="1">
+    <row r="32" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
         <v>5</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="15" thickTop="1"/>
+    <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A32:D32"/>
@@ -2097,12 +2097,12 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>12</v>
       </c>
@@ -2111,14 +2111,14 @@
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>7</v>
       </c>
@@ -2127,7 +2127,7 @@
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
@@ -2144,196 +2144,196 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="19"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="19"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="14"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="14"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="14"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="14"/>
     </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1">
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="14"/>
     </row>
-    <row r="32" spans="1:5" ht="22" thickTop="1" thickBot="1">
+    <row r="32" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
         <v>5</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="15" thickTop="1"/>
+    <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E2"/>
@@ -2369,17 +2369,17 @@
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34" customHeight="1">
+    <row r="1" spans="1:5" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>10</v>
       </c>
@@ -2388,14 +2388,14 @@
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
     </row>
-    <row r="2" spans="1:5" ht="14.5" customHeight="1">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>7</v>
       </c>
@@ -2404,7 +2404,7 @@
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
@@ -2421,196 +2421,196 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="19"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="19"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="22"/>
     </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1">
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="23"/>
     </row>
-    <row r="32" spans="1:5" ht="22" thickTop="1" thickBot="1">
+    <row r="32" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
         <v>5</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="15" thickTop="1"/>
+    <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A32:D32"/>

--- a/Dokumente/Arbeitszeiterfassung1.xlsx
+++ b/Dokumente/Arbeitszeiterfassung1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23913"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="435" windowWidth="23025" windowHeight="14985" activeTab="1"/>
+    <workbookView xWindow="1560" yWindow="440" windowWidth="23020" windowHeight="14980"/>
   </bookViews>
   <sheets>
     <sheet name="Schuschnig" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Poelzlbauer" sheetId="8" r:id="rId5"/>
     <sheet name="Rieppel" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="20">
   <si>
     <t>Datum</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>UML Fertiggestellt</t>
+  </si>
+  <si>
+    <t>Protokoll</t>
   </si>
 </sst>
 </file>
@@ -421,14 +424,14 @@
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -733,20 +736,20 @@
   </sheetPr>
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="5" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="14" customHeight="1">
       <c r="A1" s="32" t="s">
         <v>6</v>
       </c>
@@ -761,7 +764,7 @@
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
     </row>
-    <row r="2" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:11" ht="14" customHeight="1">
       <c r="A2" s="32"/>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -774,7 +777,7 @@
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="31" t="s">
         <v>13</v>
       </c>
@@ -783,7 +786,7 @@
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
     </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="2" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -800,7 +803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="28">
       <c r="A5" s="25">
         <v>41661</v>
       </c>
@@ -818,7 +821,7 @@
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="25">
         <v>41664</v>
       </c>
@@ -836,17 +839,25 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+    <row r="7" spans="1:11">
+      <c r="A7" s="25">
+        <v>41665</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="E7" s="11">
         <f t="shared" ref="E7:E31" si="0">D7-C7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4.1666666666666741E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="25"/>
       <c r="B8" s="12"/>
       <c r="C8" s="11"/>
@@ -856,7 +867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="25"/>
       <c r="B9" s="12"/>
       <c r="C9" s="11"/>
@@ -866,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="25"/>
       <c r="B10" s="12"/>
       <c r="C10" s="11"/>
@@ -876,7 +887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="25"/>
       <c r="B11" s="12"/>
       <c r="C11" s="11"/>
@@ -886,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="25"/>
       <c r="B12" s="12"/>
       <c r="C12" s="11"/>
@@ -896,7 +907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="25"/>
       <c r="B13" s="12"/>
       <c r="C13" s="11"/>
@@ -906,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="25"/>
       <c r="B14" s="12"/>
       <c r="C14" s="11"/>
@@ -916,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="25"/>
       <c r="B15" s="12"/>
       <c r="C15" s="11"/>
@@ -926,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="25"/>
       <c r="B16" s="12"/>
       <c r="C16" s="11"/>
@@ -936,7 +947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="25"/>
       <c r="B17" s="12"/>
       <c r="C17" s="11"/>
@@ -946,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="3" customFormat="1">
       <c r="A18" s="25"/>
       <c r="B18" s="12"/>
       <c r="C18" s="11"/>
@@ -956,7 +967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="3" customFormat="1">
       <c r="A19" s="26"/>
       <c r="B19" s="12"/>
       <c r="C19" s="11"/>
@@ -966,7 +977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="3" customFormat="1">
       <c r="A20" s="26"/>
       <c r="B20" s="12"/>
       <c r="C20" s="11"/>
@@ -976,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="27"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -986,7 +997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="27"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -996,7 +1007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="3" customFormat="1">
       <c r="A23" s="27"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -1006,7 +1017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="3" customFormat="1">
       <c r="A24" s="28"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -1016,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="3" customFormat="1">
       <c r="A25" s="28"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -1026,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="3" customFormat="1">
       <c r="A26" s="28"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -1036,7 +1047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="3" customFormat="1">
       <c r="A27" s="28"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -1046,7 +1057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="3" customFormat="1">
       <c r="A28" s="28"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -1056,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="27"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -1066,7 +1077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="27"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -1076,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15" thickBot="1">
       <c r="A31" s="27"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -1086,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="22" thickTop="1" thickBot="1">
       <c r="A32" s="29" t="s">
         <v>5</v>
       </c>
@@ -1095,47 +1106,47 @@
       <c r="D32" s="30"/>
       <c r="E32" s="5">
         <f>SUM(E5:E31)</f>
-        <v>0.26388888888888884</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>0.30555555555555558</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15" thickTop="1"/>
+    <row r="36" spans="1:1">
       <c r="A36" s="6"/>
     </row>
-    <row r="37" spans="1:1" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" s="7" customFormat="1">
       <c r="A37" s="8"/>
     </row>
-    <row r="38" spans="1:1" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" s="7" customFormat="1">
       <c r="A38" s="8"/>
     </row>
-    <row r="39" spans="1:1" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" s="7" customFormat="1">
       <c r="A39" s="8"/>
     </row>
-    <row r="40" spans="1:1" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" s="7" customFormat="1">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:1" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" s="7" customFormat="1">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:1" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" s="7" customFormat="1">
       <c r="A42" s="8"/>
     </row>
-    <row r="43" spans="1:1" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" s="7" customFormat="1">
       <c r="A43" s="8"/>
     </row>
-    <row r="44" spans="1:1" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" s="7" customFormat="1">
       <c r="A44" s="9"/>
     </row>
-    <row r="48" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="49" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="50" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="51" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="52" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="53" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="54" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="55" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="56" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="57" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:1" hidden="1"/>
+    <row r="49" hidden="1"/>
+    <row r="50" hidden="1"/>
+    <row r="51" hidden="1"/>
+    <row r="52" hidden="1"/>
+    <row r="53" hidden="1"/>
+    <row r="54" hidden="1"/>
+    <row r="55" hidden="1"/>
+    <row r="56" hidden="1"/>
+    <row r="57" hidden="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A32:D32"/>
@@ -1164,18 +1175,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="5" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="5" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="28" customHeight="1">
       <c r="A1" s="35" t="s">
         <v>9</v>
       </c>
@@ -1184,14 +1195,14 @@
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
     </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.5" customHeight="1">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="31" t="s">
         <v>7</v>
       </c>
@@ -1200,7 +1211,7 @@
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
@@ -1217,7 +1228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="18">
         <v>41662</v>
       </c>
@@ -1235,7 +1246,7 @@
         <v>3.8194444444444364E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="18">
         <v>41662</v>
       </c>
@@ -1253,7 +1264,7 @@
         <v>4.8611111111111049E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="25">
         <v>41664</v>
       </c>
@@ -1271,7 +1282,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="18"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
@@ -1281,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="18"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
@@ -1291,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="18"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
@@ -1301,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="18"/>
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
@@ -1311,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="18"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
@@ -1321,7 +1332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="18"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
@@ -1331,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="18"/>
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
@@ -1341,7 +1352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="18"/>
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
@@ -1351,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="18"/>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
@@ -1361,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="18"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
@@ -1371,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="20"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
@@ -1381,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="20"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
@@ -1391,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="20"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
@@ -1401,7 +1412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="21"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -1411,7 +1422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="21"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -1421,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="21"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -1431,7 +1442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="21"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -1441,7 +1452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="21"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -1451,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="21"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -1461,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="21"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -1471,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="21"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -1481,7 +1492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="21"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -1491,7 +1502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="21"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -1501,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15" thickBot="1">
       <c r="A31" s="21"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -1511,7 +1522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="22" thickTop="1" thickBot="1">
       <c r="A32" s="33" t="s">
         <v>5</v>
       </c>
@@ -1523,7 +1534,7 @@
         <v>0.24652777777777762</v>
       </c>
     </row>
-    <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A32:D32"/>
@@ -1547,12 +1558,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16" customHeight="1">
       <c r="A1" s="35" t="s">
         <v>11</v>
       </c>
@@ -1561,14 +1572,14 @@
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="31" t="s">
         <v>7</v>
       </c>
@@ -1577,7 +1588,7 @@
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
@@ -1594,77 +1605,77 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="18"/>
       <c r="B5" s="19"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="18"/>
       <c r="B7" s="19"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="18"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="18"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="18"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="18"/>
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="18"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="18"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="18"/>
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="18"/>
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
@@ -1674,119 +1685,119 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="18"/>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="18"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="20"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="20"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="20"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="21"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="14"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="21"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="21"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="14"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="21"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="21"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="21"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="21"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="21"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="21"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="14"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="21"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="14"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15" thickBot="1">
       <c r="A31" s="21"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="14"/>
     </row>
-    <row r="32" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="22" thickTop="1" thickBot="1">
       <c r="A32" s="33" t="s">
         <v>5</v>
       </c>
@@ -1798,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E2"/>
@@ -1822,14 +1833,14 @@
       <selection activeCell="C4" activeCellId="1" sqref="A1:E1048576 A1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="5" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="5" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="28" customHeight="1">
       <c r="A1" s="35" t="s">
         <v>8</v>
       </c>
@@ -1838,14 +1849,14 @@
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
     </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.5" customHeight="1">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="31" t="s">
         <v>7</v>
       </c>
@@ -1854,7 +1865,7 @@
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
@@ -1871,196 +1882,196 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="18"/>
       <c r="B5" s="19"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="18"/>
       <c r="B7" s="19"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="18"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="18"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="18"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="18"/>
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="18"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="18"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="18"/>
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="18"/>
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="18"/>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="18"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="20"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="20"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="20"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="21"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="14"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="21"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="21"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="14"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="21"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="21"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="21"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="21"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="21"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="21"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="14"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="21"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="14"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15" thickBot="1">
       <c r="A31" s="21"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="14"/>
     </row>
-    <row r="32" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="22" thickTop="1" thickBot="1">
       <c r="A32" s="33" t="s">
         <v>5</v>
       </c>
@@ -2072,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A32:D32"/>
@@ -2097,12 +2108,12 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="35" t="s">
         <v>12</v>
       </c>
@@ -2111,14 +2122,14 @@
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="31" t="s">
         <v>7</v>
       </c>
@@ -2127,7 +2138,7 @@
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
@@ -2144,196 +2155,196 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="18"/>
       <c r="B5" s="19"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="18"/>
       <c r="B7" s="19"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="18"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="18"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="18"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="18"/>
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="18"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="18"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="18"/>
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="18"/>
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="18"/>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="18"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="20"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="20"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="20"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="21"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="14"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="21"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="21"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="14"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="21"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="21"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="21"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="21"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="21"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="21"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="14"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="21"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="14"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15" thickBot="1">
       <c r="A31" s="21"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="14"/>
     </row>
-    <row r="32" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="22" thickTop="1" thickBot="1">
       <c r="A32" s="33" t="s">
         <v>5</v>
       </c>
@@ -2345,7 +2356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E2"/>
@@ -2369,17 +2380,17 @@
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="34" customHeight="1">
       <c r="A1" s="35" t="s">
         <v>10</v>
       </c>
@@ -2388,14 +2399,14 @@
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
     </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.5" customHeight="1">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="31" t="s">
         <v>7</v>
       </c>
@@ -2404,7 +2415,7 @@
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
@@ -2421,196 +2432,196 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="18"/>
       <c r="B5" s="19"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="18"/>
       <c r="B7" s="19"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="18"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="18"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="18"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="18"/>
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="18"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="18"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="18"/>
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="18"/>
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="18"/>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="18"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="20"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="20"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="20"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="21"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="21"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="21"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="21"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="21"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="21"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="21"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="21"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="21"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="21"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="22"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15" thickBot="1">
       <c r="A31" s="21"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="23"/>
     </row>
-    <row r="32" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="22" thickTop="1" thickBot="1">
       <c r="A32" s="33" t="s">
         <v>5</v>
       </c>
@@ -2621,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A32:D32"/>

--- a/Dokumente/Arbeitszeiterfassung1.xlsx
+++ b/Dokumente/Arbeitszeiterfassung1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Klune\Documents\5. Klasse\APR\Aufgaben\Aufgabe 8\Repo\RMIAuction\Dokumente\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22185" windowHeight="15480" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22188" windowHeight="15480" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Schuschnig" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
     <sheet name="Poelzlbauer" sheetId="5" r:id="rId5"/>
     <sheet name="Rieppel" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="152511" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
   <si>
     <t>Tobias Schuschnig</t>
   </si>
@@ -99,6 +104,12 @@
   </si>
   <si>
     <t>Erste Testfälle</t>
+  </si>
+  <si>
+    <t>27. Januar 2014</t>
+  </si>
+  <si>
+    <t>Use Case</t>
   </si>
 </sst>
 </file>
@@ -320,6 +331,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -647,7 +661,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K32"/>
@@ -656,16 +670,16 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -680,7 +694,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -693,7 +707,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
@@ -702,7 +716,7 @@
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
     </row>
-    <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -719,7 +733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>41661</v>
       </c>
@@ -737,7 +751,7 @@
         <v>0.10416666666666696</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>41664</v>
       </c>
@@ -755,7 +769,7 @@
         <v>0.15972222222222199</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>41665</v>
       </c>
@@ -773,7 +787,7 @@
         <v>4.1666666666666075E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>41666</v>
       </c>
@@ -791,7 +805,7 @@
         <v>9.722222222222221E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="8"/>
       <c r="C9" s="7"/>
@@ -801,7 +815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="8"/>
       <c r="C10" s="7"/>
@@ -811,7 +825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="8"/>
       <c r="C11" s="7"/>
@@ -821,7 +835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="8"/>
       <c r="C12" s="7"/>
@@ -831,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="8"/>
       <c r="C13" s="7"/>
@@ -841,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="8"/>
       <c r="C14" s="7"/>
@@ -851,7 +865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="8"/>
       <c r="C15" s="7"/>
@@ -861,7 +875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="8"/>
       <c r="C16" s="7"/>
@@ -871,7 +885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="8"/>
       <c r="C17" s="7"/>
@@ -881,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="8"/>
       <c r="C18" s="7"/>
@@ -891,7 +905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="8"/>
       <c r="C19" s="7"/>
@@ -901,7 +915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="8"/>
       <c r="C20" s="7"/>
@@ -911,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -921,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -931,7 +945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -941,7 +955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -951,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -961,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -971,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -981,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -991,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -1001,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -1011,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -1021,7 +1035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
         <v>10</v>
       </c>
@@ -1065,9 +1079,9 @@
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>11</v>
       </c>
@@ -1076,14 +1090,14 @@
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
     </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>12</v>
       </c>
@@ -1092,7 +1106,7 @@
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
@@ -1109,7 +1123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>41662</v>
       </c>
@@ -1127,7 +1141,7 @@
         <v>3.8194444444444031E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>41662</v>
       </c>
@@ -1145,7 +1159,7 @@
         <v>4.8611111111110938E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>41664</v>
       </c>
@@ -1163,7 +1177,7 @@
         <v>0.15972222222222199</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="17"/>
       <c r="C8" s="16"/>
@@ -1173,7 +1187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="17"/>
       <c r="C9" s="16"/>
@@ -1183,7 +1197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="17"/>
       <c r="C10" s="16"/>
@@ -1193,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="17"/>
       <c r="C11" s="16"/>
@@ -1203,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="17"/>
       <c r="C12" s="16"/>
@@ -1213,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="17"/>
       <c r="C13" s="16"/>
@@ -1223,7 +1237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="17"/>
       <c r="C14" s="16"/>
@@ -1233,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="17"/>
       <c r="C15" s="16"/>
@@ -1243,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="17"/>
       <c r="C16" s="16"/>
@@ -1253,7 +1267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="17"/>
       <c r="C17" s="16"/>
@@ -1263,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="17"/>
       <c r="C18" s="16"/>
@@ -1273,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="17"/>
       <c r="C19" s="16"/>
@@ -1283,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="17"/>
       <c r="C20" s="16"/>
@@ -1293,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -1303,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -1313,7 +1327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -1323,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -1333,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -1343,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -1353,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -1363,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -1373,7 +1387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -1383,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="19"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -1393,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -1403,7 +1417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
         <v>10</v>
       </c>
@@ -1439,9 +1453,9 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>15</v>
       </c>
@@ -1450,14 +1464,14 @@
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>12</v>
       </c>
@@ -1466,7 +1480,7 @@
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
@@ -1483,77 +1497,77 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="B5" s="15"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="17"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="17"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="17"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="17"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="17"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="17"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="17"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="17"/>
       <c r="C15" s="16"/>
@@ -1563,119 +1577,119 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="17"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="17"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="17"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="17"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="17"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="16"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="16"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
       <c r="E27" s="16"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="16"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
       <c r="E29" s="16"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="19"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
       <c r="E30" s="16"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
       <c r="E31" s="16"/>
     </row>
-    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
         <v>10</v>
       </c>
@@ -1707,13 +1721,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>17</v>
       </c>
@@ -1722,14 +1736,14 @@
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
     </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>12</v>
       </c>
@@ -1738,7 +1752,7 @@
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
@@ -1755,196 +1769,204 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="E5" s="16"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="17"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="17"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="17"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="17"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="17"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="17"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="17"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="17"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="17"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="17"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="17"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="17"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="17"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="16"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="16"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
       <c r="E27" s="16"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="16"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
       <c r="E29" s="16"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="19"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
       <c r="E30" s="16"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
       <c r="E31" s="16"/>
     </row>
-    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
         <v>10</v>
       </c>
@@ -1980,9 +2002,9 @@
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>18</v>
       </c>
@@ -1991,14 +2013,14 @@
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>12</v>
       </c>
@@ -2007,7 +2029,7 @@
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
@@ -2024,7 +2046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>41666</v>
       </c>
@@ -2042,7 +2064,7 @@
         <v>2.0833333333333037E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
@@ -2052,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
@@ -2062,7 +2084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="17"/>
       <c r="C8" s="16"/>
@@ -2072,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="17"/>
       <c r="C9" s="16"/>
@@ -2082,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="17"/>
       <c r="C10" s="16"/>
@@ -2092,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="17"/>
       <c r="C11" s="16"/>
@@ -2102,7 +2124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="17"/>
       <c r="C12" s="16"/>
@@ -2112,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="17"/>
       <c r="C13" s="16"/>
@@ -2122,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="17"/>
       <c r="C14" s="16"/>
@@ -2132,7 +2154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="17"/>
       <c r="C15" s="16"/>
@@ -2142,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="17"/>
       <c r="C16" s="16"/>
@@ -2152,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="17"/>
       <c r="C17" s="16"/>
@@ -2162,7 +2184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="17"/>
       <c r="C18" s="16"/>
@@ -2172,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="17"/>
       <c r="C19" s="16"/>
@@ -2182,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="17"/>
       <c r="C20" s="16"/>
@@ -2192,7 +2214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -2202,7 +2224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -2212,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -2222,7 +2244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -2232,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -2242,7 +2264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -2252,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -2262,7 +2284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -2272,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -2282,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="19"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -2292,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -2302,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
         <v>10</v>
       </c>
@@ -2334,16 +2356,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>20</v>
       </c>
@@ -2352,14 +2374,14 @@
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
     </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>12</v>
       </c>
@@ -2368,7 +2390,7 @@
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
@@ -2385,7 +2407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>41300</v>
       </c>
@@ -2402,7 +2424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>41301</v>
       </c>
@@ -2419,182 +2441,182 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="17"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="17"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="17"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="17"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="17"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="17"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="17"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="17"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="17"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="17"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="17"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="17"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="17"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="19"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
       <c r="E30" s="20"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
       <c r="E31" s="21"/>
     </row>
-    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
         <v>10</v>
       </c>
